--- a/class_diagram/model/entity/成績管理sys_クラス図_model_entity.xlsx
+++ b/class_diagram/model/entity/成績管理sys_クラス図_model_entity.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29602"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="114" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C18777C-F6AC-49BE-87D8-F03A48AC76AA}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{856FC9EA-B95A-4455-B312-B81EACD71F9B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Manager" sheetId="1" r:id="rId1"/>
@@ -1664,7 +1664,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>periods : List&lt;period&gt;</a:t>
+            <a:t>periods : List&lt;Period&gt;</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3919,6 +3919,173 @@
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>updatedAt : LocalDateTime</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2647244-A577-442C-B89F-39578015286A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{08E02AC4-4E66-4A93-94F2-3C53E62FB35E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6543675" y="2600325"/>
+          <a:ext cx="2200275" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>classes : List&lt;Class&gt;</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4265,7 +4432,7 @@
   <dimension ref="B4"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57:R89"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4286,7 +4453,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
